--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/80_Yozgat_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/80_Yozgat_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492ED2C4-7A48-4071-9CBD-5031AB2579B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABCBA225-61EC-4FB3-8F7D-5FA33A56F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{D7D116B0-27D2-4864-B6E5-6FB021F5C9B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{B0693727-8C47-4F8E-997C-8BA4FAE5A9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -984,13 +984,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F19DA227-62A3-4E28-913B-5EA8246FF0A8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DD1C2813-849A-43FF-8052-F7F11DB0D48A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D0060023-575C-49EC-A76A-224528232226}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{42C852BC-61E6-4FED-A17C-7C54E6B5EA3C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{48AE8300-D301-4269-9C7D-DA2341515C54}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F5F842B4-925E-4004-8B4F-800702B70BA6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3BA460FF-81C4-477B-B47E-65B315863E0B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3CBEB75E-166B-4CC7-BFD3-DBBA539A8E64}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E811D470-BAF1-40A7-9D45-25AFEA2F6EC2}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BB6E2D99-DAC5-484E-B6E3-1CFF126BFE28}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{27A9FF7F-8373-455D-88A1-02F22C671756}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{958FD139-11FD-4B0F-A449-6C98C9275BAE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2F7F1FB6-B6A1-4AAB-A1CE-6874B2F4596A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{11C6411C-0555-4495-909C-D06EE987B43E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886709ED-BB14-4E1D-BBE1-46A87B754079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113B0B0-905E-4F7E-AE1D-D575C8BDDFC1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2621,18 +2621,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{657213AE-77F0-4F1F-80A1-9F0C8547C98D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F479881-DC7E-4124-8A0B-4016D4D04267}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{734E10C3-0AF0-4160-AED0-E8995D2412C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA8C838F-D2CF-4582-A303-BC6E84A7307F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC195AA2-C0E7-4C9D-98EC-A14C76C9DA37}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7784339C-8B95-4D73-BCCA-96327AA7B64F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{75C79926-92A5-49B4-9633-FB1141D65BDD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56A109D5-8A9E-492F-9DEE-C9CF733FC536}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71A1E6D7-FE6C-4B29-954D-64BCD97F1828}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2CD0DD42-867E-47B5-A09B-22A698630B31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E0CA2F7-B4E2-4FCC-AC7C-2EDD4A84433E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC51FFF6-B6F1-444C-82C3-DA038E83BB2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C16FDD8-9877-4A78-B36D-614C7158867E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DCFA8AF-88FB-40CB-8BC9-E293A50B914D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D73A8C7-3110-4539-8B22-852F6AE3D4F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8826F865-E13A-434B-A335-13165C84FE80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD087CED-1FA8-4CDB-8015-5CF5FE312B63}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93F1A26E-630E-4A51-91EB-5211FCA12237}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{D9A0BA31-546B-4BB0-8BCE-44E09C49C300}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAF0ABEE-306F-48C6-9907-0CCB65F81277}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73F13986-1D18-4CFC-8564-BD7BE8EB21A1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{427C9583-F4E1-4C04-AB73-D5E9D416FAF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B613DC77-C0E0-4267-A9F9-029C0E8EC671}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{657D782F-F481-4637-AC57-467B65E12E12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2645,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A49729-84EB-4663-ACC3-0D4800ECDAA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07E9422-65AA-41BD-875B-F6E8ECA97CEE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3884,18 +3884,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{562104E1-2296-4F54-B8B4-F9C810C5A06E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95F70F18-6CE8-4EF7-8B62-51D230F3CFB7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{498861FB-F37E-4992-99F1-745C1A71CB5C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA1F205B-2932-4DCC-BBCF-596C5E54FDFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2515A2AC-4D35-448C-AB06-E739BC042BF8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8C63FFC-25E5-41DD-BD04-75B0B592FCE7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{13E43828-DA72-4D7A-84E0-FA08499B6A0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8A1CB6C-A67A-4711-8C2F-026561824AFD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B371A573-D7E2-4216-8350-A2234A74CB37}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2374243C-B515-4D0F-B3BC-395B5E090244}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6578FFCE-93C4-4010-8107-59B14ACB816F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D24FDBB7-128F-4700-9CD8-49A7D21D6A9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00444AEA-24A6-4944-8B4B-E222CBECE797}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{912ABEE9-21A9-42E0-95B2-EABA66CBD677}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E6B402A-8491-49D1-BB38-592A5505BEDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75CC342C-9AAD-4F01-BAD2-6201028F8152}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6334D09A-2F00-4FF8-8797-BB245610C788}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68F7D519-8E39-4630-A0C6-376087B12C8C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{91879568-4D61-4E61-AADA-9DC25FFBA5C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9A9245F-E1CE-4112-BEF4-9EE22847B5CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE6F1D49-8CF0-472C-BEE9-F08A2385FE8E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{75A65FCA-7809-4054-AE2D-F4240C173D69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{989AB02F-044C-4AAB-AF6F-62614B026590}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21DBE55B-0DBD-4684-8A90-F008C331CE36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3908,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752E5184-D320-4085-8857-5DF82338A4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68860A76-4FBC-43B5-B0C9-93D37DA7B852}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5147,18 +5147,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{969741E9-B3A7-4BBD-B95E-729F37FBEE8F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{354C5AC9-DCAF-4571-BADE-1CFAF582F0CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{487376CA-3603-4615-B98E-147F14A2B554}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20DDAF65-AB56-4BB3-AA86-6096DAFD1787}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28AF261D-2BA8-4870-858D-96891C4F1B4E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{538D8E74-F309-4BE8-BFCA-3C9CF3431691}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{017A47AC-C578-4D38-A5D8-57EECCD625F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD1F1514-28CF-4D93-B331-585AC4424F36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0D66DA9-E015-4EED-BBFF-6C1B84E6CBA7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2EFA1E97-EFCE-4CEA-948E-223E1E13BA85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF66BCA2-98E8-4717-82F6-37BBB6C21FFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43916952-8E07-4C61-AE0D-57103E66B10B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34717E0A-0B51-4CC3-BF43-4A823FEE4C30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAC3B32B-DE0B-4718-AB07-9C3C4F237362}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F2056F5-BACC-453C-AE97-8E03D4A7E72A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AAB9FBCA-AE09-49AB-B33E-57A23757BC39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFE58C66-A28C-4BB4-AABD-A2E216126A63}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F64CEB24-6883-4EFF-AC9F-BF68D31F1C63}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{892AAA56-2983-44FA-BCFC-D826F8DDD2D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D14BCAD5-722D-4082-8B64-B633348828A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D90CF506-8C5F-4CD6-8BCE-5ED30B62E8FC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3F7843E3-91B3-4E6A-98AB-53E2CE0C116E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E7E926F-9176-4918-A870-8E48EBDEEC53}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76CADD6C-6B4C-4152-99B4-73BE075129E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5171,7 +5171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BC60FD-0AE4-4842-BD4E-E4084F156668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D28BA8-0382-4531-976E-F9908948C86F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6398,18 +6398,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C268E02A-D140-43A2-AD14-F3C2AC4568BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{874F839D-7309-4820-B76C-92B21A712053}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29BC044F-3225-48F8-B8BC-AFC2B1F0235D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95C6A4CA-39F1-4058-B2C4-680AB12796CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DD82869-C38D-4625-8AAA-CE6AB5D9BAFD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{152E3E61-FA0C-4666-9082-68BBBD518C6B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{ABDEB10F-2B41-49EB-843A-45BEF0C06568}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3857CD52-A154-4854-80AE-01A816329FF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FEDE261-7F07-414C-A1AA-2DD08E139D5F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A5952B0B-DA22-46AC-BD93-8E3A7B46D654}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84AE3DC7-304B-43A7-9074-70893DF9A214}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{943C0BF2-544C-4E8D-9716-032FC3585B94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C53AC1BB-84C9-4E83-A43A-B79A15B3B04C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACDF2A5C-D017-41BD-9178-44A4E54F6565}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C4E40F4-1F8C-487C-AB96-266D31F9EE20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9D18F4E-46E0-48BC-977C-3E9AF0AA7BD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FAC54CA-7805-4C74-94AE-D404619F76B2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D129DBA8-F6BF-4A1C-9A05-7FD91E677412}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B3BD99A5-33B0-4A9B-A6D3-FAE4A67665EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88F1927D-D1F9-4510-8C76-6F7954DDD4A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4604B0C-6EAB-4CC7-8665-7292C733F81D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F46ED33C-2D79-452C-870E-6F92763B6348}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{793B4000-C5EA-4620-90FE-3DC6D9DDFD25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E4E0960-B4AA-49D3-BC2E-16281BA3941A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6422,7 +6422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6AA60-8C84-49B1-BCDB-86155A7C726C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E415339-97C0-4F0F-9F80-C80FBE80FF0D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7685,18 +7685,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3234B36-F872-4B77-A1C5-38AB1BE6C358}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C7FFE5E-1984-450F-B581-F2FDE59DFFDC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{516DE4AC-497C-4AEA-BC03-5C338E929815}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB65459F-5EE6-4B54-91D4-1A78A59B656E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA2EF775-3BFA-4D07-A039-022471CF17A7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8FCB4562-6E89-4AE4-B71B-2C1AFC50E04F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{632386B5-21CB-4CE8-9966-8708E6457EF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A24C145-A059-40AD-81E7-3B5C555B94DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20EA4DC7-32CF-469F-95B1-5160C6903AF3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABD34962-EF0B-4332-9D36-525497CA116C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F5976D9-48EE-4933-9705-CF309E2FE008}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE891D2C-4F81-4D8E-9F21-92FBC23DA834}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E27003-B300-483E-B17F-493673781BE0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89A89BE3-63FC-424D-8BAF-4AF14ACF9B7E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FCEA922-7F43-406D-BB49-7A1312AA7E63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C8A23C5-7AF1-4EB2-BE4A-414A85266BBF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF6FFA82-50F0-4732-916F-99E7ACAAE974}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05CBE371-8580-4337-A1B8-D4D6FA8180B8}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A695321D-4DBA-4F05-A782-2B4FC9AB7D03}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EC8B3D3-90C0-40D5-8A12-AD39E8FD403F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5D4B68D-9C8D-46C9-A4D0-EA852C291108}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B21FC04E-B211-4C8B-B05B-C57D45C61D88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A45BD966-A775-4C52-9D75-C5740DFE491F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5869E069-F2C9-4E81-9EF5-F65EA0EDC09C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7709,7 +7709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EA74C2-5574-4AD6-A546-FB25DB10A0CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD464383-E2A1-4A0A-83C3-4E01072D3363}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8972,18 +8972,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E2F6A9B-CAD7-43EA-88B9-B9F409E1E664}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F46D8AD1-16D2-45FE-BD11-AEB3B77C7848}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D30CA0F-4B10-428E-936A-03C06932138F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8D11D7D-1AD5-4D5D-BF50-6BFC1CBEED69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A759AD8E-3DDF-4A4B-BEB7-EA352FF31B33}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C36106B-1574-49A9-B848-E8BAD4B228BE}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{9596E5EE-E541-42E2-A203-A29F58298ABA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3092ECE1-702C-4070-BB3F-379E5E847C77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F639B94-3C7D-4001-9B9E-551C5E4C8E39}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{157A4E12-F7C7-4FC1-88C0-71D13E26DC7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{397C1DF7-64BD-4C1B-8B51-60508FDDD4CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AFDCC6C-4BB1-47A2-9F78-D14959FE600E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F89F7E6D-6EB0-446F-BE8E-38575E75AC98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD91F1EF-26DE-4F54-ABB7-372C918022DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75F5E1CF-DB78-4A14-9609-0C4265705ACD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90A1D420-30D0-4648-9D88-10744FC42209}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{596FE9D8-C72E-4DE0-9ABC-655757EEB9CC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFDF8AE2-EB05-4EC9-9BDE-726F6597D49D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BF1FDE06-AF9A-4A62-90D7-2651D3A8CD4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5396A5CC-2257-438D-BDB2-7F4A1D8CCBDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3644450-8948-4E30-90F9-1ACFB01EC560}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{57B080C6-8A40-46C1-978F-A800936D0317}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7F1FAFB-CA9E-444A-8DD3-5ECF29B152BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{701A1D93-55BD-4A9D-B2E1-5A911BEE5FE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8996,7 +8996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8ED7A9-7119-45F9-ADAE-2C850E3A97E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4256E617-B034-425E-AFE9-FE8A808D7155}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10259,18 +10259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{301F525E-CDF6-4B35-996A-EF6CEEC9C6CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03075474-B769-437E-A0BB-DA6B438AD2A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4C8352B-6C60-4359-9109-9D2F56EB5F68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD438BD4-87E0-4DF1-9CAC-504544157EE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14418B69-25AC-4FF2-A747-8B6F97D1C28E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F64165C2-6FA8-48CF-B047-58A597FA96CD}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{669B6C5A-F26A-4663-8B39-7D341883F71D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{016D5503-CDB2-4E3E-8DE4-C5BB6F35088C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78C6B8EF-BFD9-472F-887A-FF8A1E56C7AD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{63F537CB-143B-4E0E-B909-337169786BC8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38BA782D-58F9-45D3-BA7A-B9048ADA259F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F819D1BB-3CB1-4D6F-AF49-4E7CF6DBEE54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDE5427C-2EF8-4458-A24E-7E579EAF0931}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D492B1B9-F10A-4F3D-8F8C-0A27FFBF1FBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FADBE4FE-51E7-4F6C-8086-6C090807DEA9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{625BA28E-D58B-4BE4-B164-A6F083B91AE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68F3E6AC-1E55-455E-BC1D-D5FB83E3E681}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4353C01E-29E7-4DA8-8AC7-5AED9A014DED}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{9781D1EE-B52A-4094-977A-D279685F5E7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82340DFA-B3FE-4BD0-9776-6960D5961A94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8BD2A16-704C-4615-BBB7-26840AFF448E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52ABCD98-1961-40CC-9BBD-344BB44E94A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8F104EB-BE72-4693-90C0-544DD8EB1657}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC1D7742-A523-47B4-8A34-2B631C5104F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10283,7 +10283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8637ED49-7437-4828-8967-CA98363D00B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B10F49-7CEC-4B81-9986-3CC66A8C012A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11546,18 +11546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DE2BC7A-5CC3-4131-9308-F62A34089E8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC6F3734-F9AE-4C4C-B9DB-51EC06468A29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC05C3ED-5086-4A68-91A5-A71C4E93E10E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9981A7B5-1523-4811-9BD7-BB2A24EF72F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05984654-916D-42AC-BCB2-F381F6AF4C21}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{42D2CE74-8F41-4944-8D24-CD95BE9E57B7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FB3C7AB0-2052-49D1-AADD-552ACEA9F89B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D6A6333-78AB-46D4-9F98-96AB14CEFBAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{007AED22-4AC7-400E-A89F-9E0BACFACC08}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B468AACA-E254-4418-8DDE-33225B88FE9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3944F83-6F89-4E2F-A27C-63FA751E2E19}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C547BD13-4EED-46E6-9386-44DD47BF2543}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA634956-91D6-4487-89C3-9D4F05603861}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2250CE47-3329-4D1B-8166-4A8F196F0575}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EF0E276-49FA-4C1E-B84C-B6CF0DC5D815}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB553587-D2BA-4AC2-8CB4-9C96C6FAC1F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B97BBB8-E0B0-4A8F-8908-51957038528D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC4B7848-7CC5-45A9-996C-AC3E51B6216E}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A2084738-C2B4-4612-B1E7-9185D6BB2664}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A48236F9-F9AA-411C-9ED1-D820F85AD551}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A84A4775-124D-4F00-880D-D7299AF6D3DD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{83464A72-9C53-442A-8524-065528A30A83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3280580-E6A1-4781-8730-8231EB8D4125}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD252773-9314-40D7-A2A9-2813EB83CC7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11570,7 +11570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2186C3B3-5EC6-423C-B98F-325ADE3D0E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B88E2-2FD3-4778-A763-0798E53DACCE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12825,18 +12825,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{911CC905-3E80-4715-A2BD-F01D1CEEE65D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{326AE4E5-CFFB-4CCE-A7BB-28AB5058BA6E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8F0500F-2F8B-4A90-9F4C-35774E3239BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5A4ADA4-9DFD-4422-89F5-6B6F0F943E8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E193459-8489-4E84-9019-5E3AA987A742}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3E45682-7F8A-4AFA-88AE-4D1F6F7F9D94}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FB9254D5-4CBD-407D-A996-6A5CE34C30C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB255326-E987-4E3A-9CAD-DA7851AA903E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{461B07F6-1501-40A9-A363-4F20989E3DBB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A0A5BF58-1C2C-49B9-9C7D-882B42AA345A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A14DC073-EBDE-4AFF-9122-89F63AB0373F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{310A10B0-9302-4308-9A08-DE5042DF2E89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1F4C67F-F60D-490A-8C3E-551C8D987989}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65A7FCF9-2E82-43DD-8EBC-DABBB7436E93}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4BBD1F5-4F18-4EAF-AAC0-112EA48963BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12212E5E-8C1C-4A10-950C-B236DA633DBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0662E77-DF3F-4DBA-9936-5632A7556C40}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B570E1E5-AD4E-455B-B02D-6AF589FFBF39}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{648AD865-F794-4B36-9ECA-52478E9C14F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{912A7376-BF31-4B2F-9766-C9951B348CE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03088D1D-CA29-4B7C-8503-5A4DD5F06400}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{03B1D43F-1C64-4C25-8999-A67BC57785A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D57A188D-514C-41C6-80E5-F09937EE0621}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F745C8E0-F080-4EC5-804F-BDF673067D00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12849,7 +12849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BBCDCF-7EF5-4D50-BC0F-48432B1A11A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C3E269-CFD2-40A0-A33D-F74D963C6D07}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14088,18 +14088,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1443121D-E712-4224-9A45-300D322964FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5EB7C26-64B4-407D-AF43-7D13E02AF6AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{170D0D6E-AA2D-4A3A-A047-98A2CEB14CDB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC0CE448-269B-4CE7-9A0A-063660B3B640}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B245AEFD-E45A-4119-BE12-AD417A42642C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{452A83F4-44FD-4E00-B256-A4B4DC4998F6}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{CC9ADFAF-0B5D-478F-BCCA-2339F71F1F18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01C486EA-25AD-4839-B507-AF62577F2499}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87C4B0C3-A756-4D82-A944-79ACC96C196D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{35E57EFF-F3F6-4878-A939-4544D8FA4CB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{593772F7-183D-48E6-B7BE-47F856DB7D3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B225917B-1036-41B4-AF92-CAC169F57D7C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47B60C9B-C51F-4770-806E-32C74E0EFE00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF466C51-1568-4921-9C05-A79BF2507318}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22CBE182-7B54-422D-8E57-B435167FC71D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04269CF2-0A42-4168-B9E2-2660BFA17125}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19FF9D78-F0B1-43C4-8648-B21D1953D8F3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D5BDBA4-2A20-4C63-8B5E-394B2F866C30}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3DAD5509-8B1C-41EC-AE62-0230F0D4DC7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A601CD1A-676C-4C5E-B0EB-A5E1AC11C338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5377359A-4A59-4108-BE57-F63656947E33}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7B3C02A0-92E8-4C55-AC17-4D51F37CA4FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00D31A0E-D4AC-4927-BCB3-C61F40EEF8E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E46F3048-DE9A-4589-B511-2AB954517E47}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14112,7 +14112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EEAE29-1FE5-47DC-BEB8-6CF55049554D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B3B30C-8AF5-4F2D-873C-B9E3B94F400A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15351,18 +15351,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D59753C-C2EC-4D0F-BC57-E82A2C1B8F87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B158040F-0E45-47F1-87DA-98488161AE04}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6A197AA-15E1-4242-A4F4-531BC6EBEA08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4E9119D-2381-4196-897B-C957C735E522}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC2F0CFC-08AC-4855-B936-0B95284A4D85}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA32A277-1E96-4F58-8E52-4525F9BDA0B0}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2702E866-7BF0-4113-9B53-4F4F50352687}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D62E050-3F5B-4F32-B3B1-06572E81F8B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D87E846D-1F4E-4FD5-8324-B7824720182A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E6FE4901-1DB2-4D9B-8BFC-B0BF765F20A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9827530-B38D-4B11-BA30-08F862F445CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C481F5F-F1B3-426D-844A-455C85862A03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96EF56C1-44EF-42E6-8653-845279821883}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52A76659-15E2-43A5-A106-090C14EFD7E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DED33F29-745E-4EDD-B803-27893C075000}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CE297F6-F48E-478F-A493-988C990957BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DFA86EF-1BC2-42E2-B801-6ED82AE91D0E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9F90057-4C00-45B3-9BD8-5053F0285AC5}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{46E26207-D8FE-4B69-ABA5-90C2324879AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81073D13-A947-4BBA-91F1-6AB3670F4947}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24EC9DAB-D98B-4009-90F6-E50C6CDBABA2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{20D291C2-E4B7-489A-99CF-1D87A29A9545}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C7E2CF3-BC5F-4A4B-B63A-EDDF12691B12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BF8606E-529C-4C6E-8480-BF1EABCC28E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15375,7 +15375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D98694-1769-44C4-84F3-00EEBE7EDF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EE6872-2795-4909-9CD0-F60DF9BF376C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16614,18 +16614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA9BEF8D-83E9-482A-A038-6CC465530258}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA56C55F-8231-4AD9-81A1-08D07114AF60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36E4D111-A8F7-4B6D-A9A7-E28DD7D08136}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F763E4CD-E675-4400-B729-16499D5BAB10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56911512-5E3C-4684-B36A-025FE450000A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{577D79FB-DF9A-418C-A4E9-4E3A06E16A23}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{37BFEF19-1E76-4FFC-ACD4-A27765C449C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F707EE7D-C4DE-4925-A739-F3468C612F35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E36023A8-2139-4353-B5B0-B090D002670E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B6E1E428-0FDE-4CE5-B005-7A5FD75EE4E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4E27F66-0D78-4A17-A024-1266E7E0ECB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBB6E308-CEFE-40DF-9E4B-6C8690425FF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75B10E78-8D9A-42BF-AF67-0D047802F112}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2ABCEDD2-C923-44DD-B6AF-17ECCC046F40}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF45F6B5-815D-4DD8-99E0-3553CFE8DE92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{522361BA-A6D0-406A-A9B0-4F02181797E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AF5CB79-6415-4A73-AAC4-062C0818A713}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98B1AB92-35E1-40E0-9DE8-FF3F9FE7B403}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C1D5E2B7-4861-4BCD-8947-A22B8FBBF9E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F4245DA-F6B3-453B-A767-44DD3C6E49B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42DECEDF-1F51-457C-83E2-DE60C04F01FC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3B588278-D46B-483A-B693-09E2C8E4D2D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{222F2B5F-3ADD-4B2A-B585-77D22A299B1D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C82D11FA-9A1D-4367-B65E-4A2217F6990F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
